--- a/frontend-cemos/public/assets/content/direito/6-protocolo-II/script/vf1.xlsx
+++ b/frontend-cemos/public/assets/content/direito/6-protocolo-II/script/vf1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>bibliografia_id</t>
+          <t>bibliografia_titulo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,22 +488,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O principal propósito das Nações Unidas é manter a paz e a segurança internacionais, tomando medidas coletivas para evitar ameaças à paz e reprimir atos de agressão.</t>
+          <t>O Protocolo II aplica-se a conflitos armados não internacionais no território de uma Alta Parte Contratante entre suas Forças Armadas e grupos armados organizados que exerçam controle territorial suficiente.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>O principal propósito das Nações Unidas limita-se a promover a cooperação cultural e social, abstendo-se de tomar medidas coercitivas para reprimir a agressão.</t>
+          <t>O Protocolo II aplica-se a todos os conflitos armados que ocorrem no território de uma Alta Parte Contratante, independentemente do nível de controle territorial dos grupos armados.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O primeiro propósito da ONU é Manter a paz e a segurança internacionais e tomar, coletivamente, medidas efetivas para evitar ameaças à paz e reprimir atos de agressão ou outra qualquer ruptura da paz.</t>
+          <t>O Artigo 1, parágrafo 1, exige que os grupos armados organizados exerçam controle territorial suficiente para realizar operações militares contínuas e aplicar o Protocolo.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,7 +512,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -522,22 +522,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A Carta das Nações Unidas foi assinada em São Francisco a 26 de junho de 1945.</t>
+          <t>O Protocolo II não se aplica a situações de tensões internas e distúrbios internos, tais como motins e atos esporádicos e isolados de violência.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A Carta das Nações Unidas foi promulgada em 22 de outubro de 1945, data da sua assinatura em Nova York.</t>
+          <t>Situações de tensões internas e distúrbios internos são consideradas conflitos armados de baixa intensidade e são cobertas pelo Protocolo II.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A Carta das Nações Unidas foi assinada em São Francisco, a 26 de junho de 1945.</t>
+          <t>O Artigo 1, parágrafo 2, exclui tensões internas, motins e atos esporádicos de violência do campo de aplicação do Protocolo II.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,22 +556,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>As Nações Unidas buscam a cooperação internacional para promover e estimular o respeito aos direitos humanos e às liberdades fundamentais para todos, sem distinção de raça, sexo, língua ou religião.</t>
+          <t>O Protocolo II desenvolve e completa o Artigo 3 comum às Convenções de Genebra de 1949, sem modificar suas condições de aplicação atuais.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A Carta estabelece que a promoção dos direitos humanos é responsabilidade exclusiva dos Estados-membros, sendo vedada a interferência da ONU nesse assunto.</t>
+          <t>O Protocolo II substitui integralmente o Artigo 3 comum às Convenções de Genebra de 1949 para os Estados que o ratificaram.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Artigo 1 (3) estabelece o propósito de conseguir cooperação internacional para promover e estimular o respeito aos direitos humanos e às liberdades fundamentais para todos, sem distinção.</t>
+          <t>O Artigo 1, parágrafo 1, estabelece que o Protocolo desenvolve e completa o Artigo 3 comum sem modificar suas condições de aplicação.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,7 +580,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -590,22 +590,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A Organização das Nações Unidas é baseada no princípio da igualdade de todos os seus Membros.</t>
+          <t>Nenhuma disposição do Protocolo II pode ser invocada para atingir a soberania de um Estado, a responsabilidade do Governo de manter a lei e a ordem ou justificar a intervenção externa.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A ONU é baseada no princípio da desigualdade soberana, conferindo maior peso aos membros permanentes do Conselho de Segurança em todas as decisões.</t>
+          <t>As disposições do Protocolo II podem ser invocadas por organizações internacionais como justificativa para intervenção humanitária no conflito armado.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O Artigo 2 (1) afirma que a Organização é baseada no princípio da igualdade de todos os seus Membros.</t>
+          <t>O Artigo 3, parágrafo 2, proíbe que qualquer disposição do Protocolo seja invocada como justificativa para intervir, direta ou indiretamente, no conflito ou nos assuntos internos ou externos da Alta Parte contratante.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,7 +614,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -624,22 +624,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Todos os Membros deverão evitar a ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado em suas relações internacionais.</t>
+          <t>Sob o controle da autoridade competente, o pessoal sanitário e religioso deve ostentar o emblema distintivo (Cruz Vermelha, Crescente Vermelho ou Leão e Sol Vermelhos) sobre fundo branco.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>O uso da força é permitido nas relações internacionais, desde que seja comunicado ao Conselho de Segurança antes da sua execução.</t>
+          <t>O pessoal sanitário e religioso é obrigado a usar o emblema distintivo, mas o emblema pode ser exibido sobre qualquer cor, desde que seja claramente visível.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Artigo 2 (4) exige que todos os Membros evitem em suas relações internacionais a ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado.</t>
+          <t>O Artigo 12 especifica que o emblema deve ser ostentado sobre fundo branco.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,7 +648,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -658,22 +658,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O princípio de não intervenção em assuntos que dependam essencialmente da jurisdição interna de qualquer Estado não prejudica a aplicação das medidas coercitivas constantes do Capítulo VII da Carta.</t>
+          <t>Os civis gozam da proteção geral conferida pelo Título IV, a não ser que participem diretamente das hostilidades e apenas enquanto essa participação perdurar.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>O Capítulo VII, que trata de ações coercitivas, não pode ser aplicado em assuntos que dependam da jurisdição interna de um Estado, prevalecendo o princípio de não intervenção.</t>
+          <t>O ato de participar diretamente das hostilidades causa a perda permanente da proteção concedida aos civis pelo Protocolo II.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O princípio de não intervenção (Artigo 2.7) não prejudicará a aplicação das medidas coercitivas constantes do Capítulo VII.</t>
+          <t>O Artigo 13, parágrafo 3, estabelece que a proteção é perdida *somente se* e *enquanto dure* a participação direta nas hostilidades.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -682,7 +682,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -692,22 +692,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança é composto por quinze Membros das Nações Unidas.</t>
+          <t>É proibido utilizar a fome contra os civis como método de combate.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança é composto por dez membros não permanentes e dois membros permanentes, totalizando doze membros.</t>
+          <t>A proibição de utilizar a fome como método de combate é válida apenas para conflitos internacionais, mas não para conflitos internos, cobertos pelo Protocolo II.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança será composto de quinze Membros das Nações Unidas.</t>
+          <t>O Artigo 14 proíbe explicitamente a utilização da fome contra os civis como método de combate no âmbito do Protocolo II.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -716,7 +716,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -726,22 +726,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A República da China, a França, a União das Repúblicas Socialistas Soviéticas, o Reino Unido da Grã-Bretanha e Irlanda do Norte e os Estados Unidos da América são os membros permanentes do Conselho de Segurança.</t>
+          <t>É proibido atacar ou inutilizar bens indispensáveis à sobrevivência da população civil, como gêneros alimentícios, colheitas e reservas de água potável, com o fim de causar fome.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Os membros permanentes do Conselho de Segurança incluem a Alemanha, o Japão e a Índia, além dos Estados Unidos e da Rússia.</t>
+          <t>Bens indispensáveis à sobrevivência da população civil, como plantações e gado, podem ser atacados se representarem um apoio logístico indireto às forças adversárias.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Os cinco membros permanentes estão listados no Artigo 23 (1).</t>
+          <t>O Artigo 14 proíbe atacar ou inutilizar esses bens com o fim de subtrair ou inutilizar com esse fim os bens indispensáveis à sobrevivência da população civil.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -750,7 +750,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -760,22 +760,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Os membros não permanentes do Conselho de Segurança são eleitos por um período de dois anos, e nenhum membro que termine seu mandato poderá ser reeleito para o período imediato.</t>
+          <t>Represas, diques e centrais nucleares de energia elétrica não serão objeto de ataques, mesmo que sejam objetivos militares, se o ataque puder causar perdas importantes na população civil pela liberação de forças perigosas.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Os membros não permanentes são eleitos por um período de quatro anos, e podem ser reeleitos imediatamente, dependendo da distribuição geográfica equitativa.</t>
+          <t>A proteção das obras e instalações que contenham forças perigosas (Artigo 15) não se aplica se tais obras forem consideradas objetivos militares de alta prioridade.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Os membros não permanentes são eleitos por um período de dois anos e não podem ser reeleitos para o período imediato.</t>
+          <t>O Artigo 15 estabelece que estas obras *não serão objeto de ataques, mesmo que sejam objetivos militares*, quando o ataque puder acarretar a liberação de forças perigosas.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -784,32 +784,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Os Membros da ONU conferem ao Conselho de Segurança a principal responsabilidade na manutenção da paz e da segurança internacionais.</t>
+          <t>O deslocamento da população civil só pode ser ordenado se o exigirem a segurança dos civis ou razões militares imperiosas.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A principal responsabilidade pela manutenção da paz e segurança internacionais cabe à Assembleia Geral, cabendo ao Conselho de Segurança apenas funções consultivas.</t>
+          <t>Em situações de conflito interno, a Alta Parte Contratante tem o poder discricionário de ordenar o deslocamento da população civil por qualquer motivo relacionado à conveniência logística.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>O Artigo 24 (1) confere ao Conselho de Segurança a principal responsabilidade na manutenção da paz e da segurança internacionais.</t>
+          <t>O Artigo 17, parágrafo 1, limita as razões para o deslocamento forçado à segurança dos civis ou a razões militares imperiosas.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -818,32 +818,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Os Membros das Nações Unidas concordam em aceitar e executar as decisões do Conselho de Segurança, de acordo com a presente Carta.</t>
+          <t>Os civis não poderão ser forçados a abandonar seu próprio território por razões relacionadas com o conflito.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>As decisões do Conselho de Segurança são meras recomendações e não são de execução obrigatória para os Estados-membros, exceto em caso de legítima defesa.</t>
+          <t>O deslocamento de civis para fora do território nacional pode ser imposto pela Alta Parte Contratante, desde que seja por razões de segurança.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>O Artigo 25 estabelece que os Membros concordam em aceitar e executar as decisões do Conselho de Segurança.</t>
+          <t>O Artigo 17, parágrafo 2, proíbe que os civis sejam forçados a abandonar seu próprio território por razões relacionadas com o conflito.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -852,32 +852,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>No cumprimento de seus deveres, o Conselho de Segurança agirá de acordo com os Propósitos e Princípios das Nações Unidas.</t>
+          <t>Ações de socorro em favor da população civil que padece de privações extremas só podem ser organizadas com o consentimento da Alta Parte Contratante interessada.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>O Conselho de Segurança tem total liberdade de ação, não precisando aderir estritamente aos Propósitos e Princípios da Organização ao cumprir seus deveres.</t>
+          <t>As ações de socorro podem ser organizadas por qualquer sociedade humanitária, independentemente do consentimento da Alta Parte Contratante.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>O Artigo 24 (2) estabelece que o Conselho de Segurança agirá de acordo com os Propósitos e Princípios das Nações Unidas.</t>
+          <t>O Artigo 18, parágrafo 2, exige o consentimento da Alta Parte Contratante interessada para a organização de ações de socorro.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -886,32 +886,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cada membro do Conselho de Segurança terá um voto.</t>
+          <t>As ações de socorro devem ser de caráter exclusivamente humanitário e imparcial, sendo realizadas sem distinção alguma de caráter desfavorável.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Apenas os membros permanentes do Conselho de Segurança possuem direito a voto, cabendo aos não permanentes apenas a participação em deliberações.</t>
+          <t>As ações de socorro podem ter caráter parcial, desde que beneficiem a maioria da população afetada.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>O Artigo 27 (1) estabelece que cada membro do Conselho de Segurança terá um voto.</t>
+          <t>O Artigo 18, parágrafo 2, exige que as ações de socorro sejam de caráter *exclusivamente humanitário e imparcial* e realizadas sem distinção desfavorável.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -920,32 +920,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>As decisões do Conselho de Segurança em questões processuais serão tomadas pelo voto afirmativo de nove Membros.</t>
+          <t>O presente Protocolo deverá ser divulgado o mais amplamente possível.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>As decisões sobre questões processuais exigem o voto afirmativo de nove membros, incluindo o voto unânime dos membros permanentes.</t>
+          <t>A difusão do Protocolo II é obrigatória apenas para as Forças Armadas, mas não para a população civil.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>As decisões em questões processuais requerem o voto afirmativo de nove Membros.</t>
+          <t>O Artigo 19 determina que o Protocolo deverá ser divulgado *o mais amplamente possível*.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -954,750 +954,36 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
+          <t>Decreto nº 849/1993 – Protocolo II.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nas decisões sobre "todos os outros assuntos", o voto afirmativo de todos os membros permanentes é obrigatório, estabelecendo-se o direito de veto.</t>
+          <t>O Protocolo II esteve aberto à assinatura das Partes nas Convenções por um período de doze meses após a assinatura da Ata Final.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Em questões substantivas, a abstenção de um membro permanente é considerada um veto, impedindo a aprovação da resolução.</t>
+          <t>O Protocolo II permaneceu aberto à assinatura por tempo indeterminado para permitir a adesão de todos os Estados membros da ONU.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>As decisões sobre "todos os outros assuntos" exigem o voto afirmativo de nove membros, inclusive os votos afirmativos de todos os membros permanentes.</t>
+          <t>O Artigo 20 estabelece que o Protocolo permaneceu aberto para assinatura durante um período de doze meses.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Pág 8</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>As partes em controvérsia devem, antes de tudo, procurar uma solução por negociação, inquérito, mediação, conciliação, arbitragem, ou a qualquer outro meio pacífico à sua escolha.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança deve ser o primeiro a intervir em qualquer controvérsia, pois a negociação direta entre as partes é desincentivada pela Carta.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>O Artigo 33 (1) lista os diversos meios pacíficos que as partes devem procurar antes de tudo.</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Pág 8</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança poderá investigar qualquer controvérsia para determinar se a sua continuação pode constituir ameaça à manutenção da paz e da segurança internacionais.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança só pode investigar controvérsias após o fracasso das negociações, sendo-lhe proibido investigar situações que apenas "possam provocar atritos".</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança poderá investigar qualquer controvérsia ou situação suscetível de provocar atritos para determinar se pode constituir ameaça à paz.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Pág 8</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança convidará as partes a resolver suas controvérsias por meios pacíficos quando julgar necessário.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança está proibido de convidar as partes a resolver suas controvérsias por meios pacíficos, devendo apenas emitir recomendações judiciais.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança convidará as partes a resolver por tais meios (pacíficos) suas controvérsias, quando julgar necessário.</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Pág 10</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança determinará a existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão, e decidirá as medidas a serem tomadas.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>A determinação de um ato de agressão é responsabilidade exclusiva da Assembleia Geral, cabendo ao Conselho de Segurança apenas a execução das sanções.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>O Artigo 39 estabelece que o Conselho de Segurança determinará a existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Pág 10</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança poderá convidar as partes a aceitarem medidas provisórias, a fim de evitar que a situação se agrave, tomando nota do não cumprimento dessas medidas.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>As medidas provisórias tomadas pelo Conselho de Segurança no Artigo 40 são obrigatoriamente coercitivas e envolvem o emprego de forças armadas, sem prejuízo da situação das partes interessadas.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>O Artigo 40 trata de medidas provisórias, que não envolvem forças armadas e não prejudicam direitos, mas o não cumprimento será notado.</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Pág 10</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança pode impor a interrupção completa ou parcial das relações econômicas, dos meios de comunicação e o rompimento das relações diplomáticas, sem envolver o emprego de forças armadas.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>As sanções do Artigo 41 se limitam a embargos econômicos, não incluindo a interrupção dos meios de comunicação ou o rompimento de relações diplomáticas.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>O Artigo 41 lista a interrupção completa ou parcial das relações econômicas, dos meios de comunicação e o rompimento das relações diplomáticas.</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Pág 11</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança poderá levar a efeito uma ação militar, por meio de forças aéreas, navais ou terrestres, se considerar que as medidas não militares (Artigo 41) são inadequadas.</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança pode optar diretamente por ações militares sem a necessidade de determinar previamente a inadequação das medidas não militares.</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>O Artigo 42 permite ação militar apenas "no caso de o Conselho de Segurança considerar que as medidas previstas no Artigo 41 seriam ou demonstraram que são inadequadas".</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Pág 11</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>A ação militar do Conselho de Segurança poderá compreender demonstrações, bloqueios e outras operações, por parte das forças aéreas, navais ou terrestres dos Membros das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>A ação militar da ONU, conforme o Artigo 42, é limitada a operações de manutenção da paz (peacekeeping), proibindo bloqueios e demonstrações coercitivas.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>O Artigo 42 lista demonstrações, bloqueios e outras operações como possíveis ações militares.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Pág 11</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Os Membros das Nações Unidas se comprometem a proporcionar ao Conselho de Segurança, mediante acordos especiais, forças armadas, assistência e facilidades necessárias à manutenção da paz.</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>O fornecimento de forças armadas pelos Membros ao Conselho de Segurança é voluntário e não depende de acordos especiais prévios.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Os Membros se comprometem a proporcionar forças armadas, assistência e facilidades, mas de conformidade com o acôrdo ou acordos especiais.</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Pág 13</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Os acordos especiais entre o Conselho de Segurança e os Membros devem determinar o número e tipo das forças, seu grau de preparação e sua localização geral.</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Os acordos especiais (Artigo 43) se referem apenas à assistência logística, não determinando o tipo, número ou localização das forças armadas.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>O Artigo 43 (2) determina que o número e tipo das forças, o grau de preparação e sua localização geral serão determinados pelos acordos.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Pág 13</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança deve convidar um Membro não representado no Conselho a participar das decisões relativas ao emprego de seus contingentes, se o Membro assim o desejar.</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Membros da ONU não representados no Conselho são obrigados a fornecer forças armadas se solicitado, mas não têm o direito de participar das decisões sobre o seu emprego.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>O Artigo 44 estabelece que o Conselho deve convidar o referido Membro a participar das decisões, se este assim o desejar.</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Pág 13</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Os Membros da ONU deverão manter contingentes das forças aéreas nacionais imediatamente utilizáveis, a fim de habilitar as Nações Unidas a tomarem medidas militares urgentes.</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>A manutenção de contingentes de forças terrestres imediatamente utilizáveis é a principal prioridade para que a ONU possa tomar medidas militares urgentes.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>O Artigo 45 exige que os Membros mantenham contingentes das **forças aéreas** nacionais imediatamente utilizáveis.</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Pág 14</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>O Conselho de Segurança fará planos para a aplicação das forças armadas com a assistência da Comissão de Estado Maior.</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>A aplicação das forças armadas é de inteira responsabilidade do Secretário-Geral, que deve formular os planos sem assistência da Comissão de Estado Maior.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>O Artigo 46 estabelece que o Conselho de Segurança, com a assistência da Comissão de Estado Maior, fará planos para a aplicação das forças armadas.</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Pág 14</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>A Comissão de Estado Maior será composta pelos Chefes de Estado Maior dos Membros Permanentes do Conselho de Segurança ou de seus representantes.</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>A Comissão de Estado Maior é composta pelos Chefes de Estado Maior de todos os quinze membros do Conselho de Segurança.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>O Artigo 47 (2) especifica que a Comissão é composta pelos Chefes de Estado Maior dos Membros Permanentes do Conselho de Segurança ou de seus representantes.</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Pág 14</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>A Comissão de Estado Maior deve orientar e assistir o Conselho de Segurança em todas as questões relativas às exigências militares, à utilização e comando das forças, e à regulamentação de armamentos.</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>A Comissão de Estado Maior tem a responsabilidade exclusiva pelo comando tático das forças armadas da ONU, sem a necessidade de orientação do Conselho de Segurança.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>O Artigo 47 (1) define o papel da Comissão como orientar e assistir o Conselho de Segurança em todas as questões relativas às exigências militares, utilização e comando das forças.</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Pág 15</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>A ação necessária ao cumprimento das decisões do Conselho de Segurança será levada a efeito por todos os Membros ou por alguns deles, conforme determinado pelo Conselho.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Todas as decisões coercitivas do Conselho de Segurança devem ser executadas coletivamente por todos os Membros da ONU.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>O Artigo 48 (1) estabelece que a ação será levada a efeito por todos os Membros ou por alguns deles, conforme seja determinado pelo Conselho de Segurança.</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Pág 15</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Os Membros das Nações Unidas prestar-se-ão assistência mútua para a execução das medidas determinadas pelo Conselho de Segurança.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>A assistência mútua entre os Membros da ONU é obrigatória apenas para ações de legítima defesa, não se aplicando às medidas coercitivas do Conselho de Segurança.</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>O Artigo 49 obriga os Membros a prestarem assistência mútua para a execução das medidas determinadas pelo Conselho de Segurança.</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Pág 15</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Qualquer Estado que sofra problemas econômicos resultantes de medidas preventivas ou coercitivas do Conselho de Segurança tem o direito de consultar o Conselho a respeito da solução de tais problemas.</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Somente os Estados-membros da ONU têm o direito de consultar o Conselho de Segurança sobre problemas econômicos decorrentes de sanções.</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>O Artigo 50 confere o direito de consulta ao Conselho de Segurança para qualquer outro Estado, "Membro ou não das Nações Unidas", que se sinta em presença de problemas especiais de natureza econômica.</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Pág 16</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>O direito inerente de legítima defesa individual ou coletiva é preservado no caso de ocorrer um ataque armado contra um Membro das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>A Carta das Nações Unidas aboliu o direito de legítima defesa individual, permitindo apenas a legítima defesa coletiva, desde que autorizada pelo Conselho de Segurança.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>O Artigo 51 preserva o direito inerente de legítima defesa individual ou coletiva no caso de ocorrer um ataque armado.</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Pág 16</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>O direito de legítima defesa se estende apenas até o momento em que o Conselho de Segurança tenha tomado as medidas necessárias para a manutenção da paz e da segurança internacionais.</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>O direito de legítima defesa, uma vez exercido, só pode ser encerrado por decisão do Estado agredido, independentemente das ações subsequentes do Conselho de Segurança.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>O direito de legítima defesa dura "até que o Conselho de Segurança tenha tomado as medidas necessárias para a manutenção da paz e da segurança internacionais".</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Decreto nº 19.841 – Carta das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Pág 16</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>As medidas tomadas pelos Membros no exercício da legítima defesa devem ser comunicadas imediatamente ao Conselho de Segurança.</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>A comunicação das medidas de legítima defesa ao Conselho de Segurança é opcional, cabendo ao Estado agredido decidir se o fará.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>O Artigo 51 estabelece que as medidas tomadas pelos Membros no exercício desse direito de legítima defesa serão comunicadas imediatamente ao Conselho de Segurança.</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
